--- a/biology/Botanique/Dominique_Champluvier/Dominique_Champluvier.xlsx
+++ b/biology/Botanique/Dominique_Champluvier/Dominique_Champluvier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Champulier, née le 20 juin 1953 à Ixelles, est une botaniste belge, chercheuse et collaboratrice scientifique au Jardin botanique de Meise.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fait ses études secondaires à Bruxelles, puis obtient en 1975 une licence en sciences botaniques, avec un mémoire intitulé Contribution à l'étude de la dynamique des landes herbeuses en haute Ardenne[1] à l'université catholique de Louvain. Elle est agrégée de l'enseignement secondaire supérieur en botanique (1976)[1].
-Depuis 1990, elle est attachée au Jardin botanique national de Meise, et travaille au département Ptéridophytes-Spermatophytes, section Afrique[1]. Elle réalise plusieurs missions en Europe et en Afrique dans ce cadre. Elle est administratrice de la Société botanique de Liège de 1989 à 1991.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait ses études secondaires à Bruxelles, puis obtient en 1975 une licence en sciences botaniques, avec un mémoire intitulé Contribution à l'étude de la dynamique des landes herbeuses en haute Ardenne à l'université catholique de Louvain. Elle est agrégée de l'enseignement secondaire supérieur en botanique (1976).
+Depuis 1990, elle est attachée au Jardin botanique national de Meise, et travaille au département Ptéridophytes-Spermatophytes, section Afrique. Elle réalise plusieurs missions en Europe et en Afrique dans ce cadre. Elle est administratrice de la Société botanique de Liège de 1989 à 1991.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les épithètes spécifiques de Dischistocalyx champluverianus, Justicia champluvierae, Mimulopsis champluvierae ou Psychotria champluvierae, lui rendent hommage.
 </t>
